--- a/SMPP-Client-Automated/Testcases.xlsx
+++ b/SMPP-Client-Automated/Testcases.xlsx
@@ -19,6 +19,29 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t xml:space="preserve">Serial Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bind Transmitter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bind Receiver</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bind Transceiver</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
@@ -29,6 +52,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -88,8 +112,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -110,14 +142,223 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.3"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2"/>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2"/>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="2"/>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="2"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C1:Q1"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B2:B39" type="list">
+      <formula1>"Bind Transmitter,Bind Receiver,Bind Transceiver,SubmitSM"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
